--- a/biology/Zoologie/Godthul/Godthul.xlsx
+++ b/biology/Zoologie/Godthul/Godthul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Godthul (ou Godt Hul Harbour, Godthul Bay) est une baie située sur la côte nord-ouest de la Géorgie du Sud. Longue de 1,6 km, elle a été utilisée comme port et dépôt par les chasseurs de baleines norvégiens. Son nom signifie « bonne anse (ou crique) » en norvégien[1]; nom qui a été donné par les hommes y travaillant et qui vient d'une baie située sur l'île de Veierland (commune de Nøtterøy).
+Godthul (ou Godt Hul Harbour, Godthul Bay) est une baie située sur la côte nord-ouest de la Géorgie du Sud. Longue de 1,6 km, elle a été utilisée comme port et dépôt par les chasseurs de baleines norvégiens. Son nom signifie « bonne anse (ou crique) » en norvégien; nom qui a été donné par les hommes y travaillant et qui vient d'une baie située sur l'île de Veierland (commune de Nøtterøy).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1908 l'entreprise Bryde &amp; Dahls Hvalfangerselskap établit un navire-usine dans la baie de Godthul qui devient le seul endroit de Géorgie du Sud, à l'époque de la pêche à la baleine, où l’abattage et la cuisson ne se faisait pas à terre. Quelques cabanes, un quai et une arrivée d'eau y furent construits[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1908 l'entreprise Bryde &amp; Dahls Hvalfangerselskap établit un navire-usine dans la baie de Godthul qui devient le seul endroit de Géorgie du Sud, à l'époque de la pêche à la baleine, où l’abattage et la cuisson ne se faisait pas à terre. Quelques cabanes, un quai et une arrivée d'eau y furent construits.
 De 1917 à 1922, la baie ne connait pas d'activité en raison du départ du navire-usine pour les Îles Shetland du Sud. Au cours des années 1920 l'activité a repris, mais la vétusté du matériel et la proche expiration de la licence de l'entreprise pour chasser en Géorgie du Sud ont provoqué l'abandon de Godthul en 1929.
 </t>
         </is>
